--- a/poster/Cost Analysis.xlsx
+++ b/poster/Cost Analysis.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
-  <si>
-    <t>Cost Aanlysis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Parts</t>
   </si>
@@ -56,18 +53,9 @@
     <t>Easydriver Motor Controller</t>
   </si>
   <si>
-    <t>Raspberry Pi</t>
-  </si>
-  <si>
-    <t>Motor Shaft Clamp</t>
-  </si>
-  <si>
     <t>Rechargeable Battery Pack</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Unit Cost (&gt;100)</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Wheelwatcher Encoder for Gearhead Motors</t>
   </si>
   <si>
-    <t>Sliding Lock (Pack of 3)</t>
-  </si>
-  <si>
     <t>The Hillman Group</t>
   </si>
   <si>
@@ -204,6 +189,33 @@
   </si>
   <si>
     <t>http://www.lowes.com/pd_442101-48755-L183_0__?productId=4682677</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Universal Aluminum Mounting Hub for 5mm Shaft, #4-40 Holes (2-Pack)</t>
+  </si>
+  <si>
+    <t>Sliding Lock (3-Pack)</t>
+  </si>
+  <si>
+    <t>Pololu</t>
+  </si>
+  <si>
+    <t>http://www.pololu.com/product/1203</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Microcontroller</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Cost Analysis</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +234,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -315,31 +335,18 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -348,32 +355,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -655,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
@@ -673,515 +701,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
         <v>29.95</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="22">
         <v>23.96</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <f>D4*E4</f>
         <v>29.95</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="7">
         <f>D4*F4</f>
         <v>23.96</v>
       </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>14.95</v>
+      </c>
+      <c r="F5" s="22">
+        <v>11.96</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G11" si="0">D5*E5</f>
+        <v>14.95</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H11" si="1">D5*F5</f>
+        <v>11.96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>14.95</v>
-      </c>
-      <c r="F5" s="14">
-        <v>11.96</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" ref="G5:G16" si="0">D5*E5</f>
-        <v>14.95</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" ref="H5:H17" si="1">D5*F5</f>
-        <v>11.96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>14.95</v>
-      </c>
-      <c r="F6" s="14">
-        <v>11.96</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="1"/>
-        <v>11.96</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
         <v>47.9</v>
       </c>
-      <c r="F7" s="14">
-        <f>E7</f>
+      <c r="F6" s="22">
+        <f>E6</f>
         <v>47.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>47.9</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>47.9</v>
       </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
         <v>35</v>
       </c>
-      <c r="F8" s="14">
-        <f>E8</f>
+      <c r="F7" s="22">
+        <f>E7</f>
         <v>35</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>4.47</v>
-      </c>
-      <c r="F9" s="14">
-        <f>E9</f>
-        <v>4.47</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="0"/>
-        <v>4.47</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="1"/>
-        <v>4.47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
         <v>2.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
         <v>6.18</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F9" s="22">
         <v>6.18</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>6.18</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>6.18</v>
       </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
         <v>0.35</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F10" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
         <v>19.95</v>
       </c>
-      <c r="F14" s="14">
-        <f>E14</f>
+      <c r="F11" s="22">
+        <f>E11</f>
         <v>19.95</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11">
+        <f>SUM(G4:G11)</f>
+        <v>156.78</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H4:H11)</f>
+        <v>147.22999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>14.95</v>
+      </c>
+      <c r="F14" s="7">
+        <v>11.96</v>
+      </c>
+      <c r="G14" s="6">
+        <f>D14*E14</f>
+        <v>14.95</v>
+      </c>
+      <c r="H14" s="7">
+        <f>D14*F14</f>
+        <v>11.96</v>
+      </c>
       <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1203</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7.49</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5.62</v>
+      </c>
+      <c r="G15" s="6">
+        <f>D15*E15</f>
+        <v>7.49</v>
+      </c>
+      <c r="H15" s="7">
+        <f>D15*F15</f>
+        <v>5.62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.19</v>
+      </c>
+      <c r="F16" s="7">
+        <f>E16</f>
+        <v>2.19</v>
+      </c>
+      <c r="G16" s="6">
+        <f>D16*E16</f>
+        <v>2.19</v>
+      </c>
+      <c r="H16" s="7">
+        <f>D16*F16</f>
+        <v>2.19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="24">
+        <v>11009</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="F17" s="7">
+        <f>E17</f>
+        <v>1.82</v>
+      </c>
+      <c r="G17" s="6">
+        <f>D17*E17</f>
+        <v>1.82</v>
+      </c>
+      <c r="H17" s="7">
+        <f>D17*F17</f>
+        <v>1.82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="24">
+        <v>810503</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <f>E18</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <f>D18*E18</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H18" s="7">
+        <f>D18*F18</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I18" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.19</v>
-      </c>
-      <c r="F15" s="14">
-        <f>E15</f>
-        <v>2.19</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>2.19</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="1"/>
-        <v>2.19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6">
-        <v>11009</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.82</v>
-      </c>
-      <c r="F16" s="14">
-        <f>E16</f>
-        <v>1.82</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
-        <v>1.82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="7">
-        <v>810503</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F17" s="15">
-        <f>E17</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G17" s="13">
-        <f>D17*E17</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H17" s="15">
-        <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
+      <c r="A19" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <f>SUM(G4:G17)</f>
-        <v>185.76999999999998</v>
-      </c>
-      <c r="H19" s="3">
-        <f>SUM(H4:H17)</f>
-        <v>172.23</v>
+      <c r="G19" s="14">
+        <f>SUM(G14:G18)</f>
+        <v>27.009999999999998</v>
+      </c>
+      <c r="H19" s="12">
+        <f>SUM(H14:H18)</f>
+        <v>22.150000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="14">
+        <f>G12+G19</f>
+        <v>183.79</v>
+      </c>
+      <c r="H20" s="12">
+        <f>H12+H19</f>
+        <v>169.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.47</v>
+      </c>
+      <c r="F23" s="7">
+        <f>E23</f>
+        <v>4.47</v>
+      </c>
+      <c r="G23" s="6">
+        <f>D23*E23</f>
+        <v>4.47</v>
+      </c>
+      <c r="H23" s="7">
+        <f>D23*F23</f>
+        <v>4.47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
